--- a/data/trans_orig/Q31A-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q31A-Habitat-trans_orig.xlsx
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>16.80417185494492</v>
+        <v>16.79933070829399</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>17.06172649204682</v>
+        <v>17.04488229350892</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>16.73972182185171</v>
+        <v>16.73162400209382</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>16.38209499833212</v>
+        <v>16.37231694585798</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>17.61261144346257</v>
+        <v>17.61323006186701</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>18.25889402684068</v>
+        <v>18.26170200227885</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>18.16232267991264</v>
+        <v>18.15068080088534</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>17.33762789159225</v>
+        <v>17.33383756810058</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>17.09375144301776</v>
+        <v>17.09075584488127</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>17.49763979344153</v>
+        <v>17.49544176040479</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>17.24062902620537</v>
+        <v>17.21949031726171</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>16.75103908581664</v>
+        <v>16.74474413266415</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>17.11954409608911</v>
+        <v>17.11663827762311</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>17.57933420797189</v>
+        <v>17.57313370733657</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>17.25455132990107</v>
+        <v>17.29314994242831</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>16.78186555742524</v>
+        <v>16.75493728662053</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>18.19248578441301</v>
+        <v>18.20275080551932</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>19.54320103531569</v>
+        <v>19.45342716622075</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>19.95231456430965</v>
+        <v>19.85346303226874</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>18.16755922559951</v>
+        <v>18.28605450101698</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>17.37780363823449</v>
+        <v>17.369419100065</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>18.00356795186177</v>
+        <v>18.01616794195969</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>17.85669754589551</v>
+        <v>17.9248233780946</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>17.11963714646973</v>
+        <v>17.12600221005929</v>
       </c>
     </row>
     <row r="7">
@@ -805,7 +805,7 @@
         <v>17.01370219024198</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>16.94631541568257</v>
+        <v>16.94631541568258</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>18.05358942521106</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>16.73937646622806</v>
+        <v>16.76664433172753</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>17.0297537183844</v>
+        <v>17.01487137945535</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>16.79753500191987</v>
+        <v>16.79777893804603</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>16.74477855386075</v>
+        <v>16.73273040736283</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>17.72578216371142</v>
+        <v>17.7381435635504</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>18.15225652077902</v>
+        <v>18.12703915403663</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>18.03680280560134</v>
+        <v>18.00887678055519</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>17.90049498962271</v>
+        <v>17.90559044675355</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>17.14960264518522</v>
+        <v>17.14969731049494</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>17.46975601220078</v>
+        <v>17.46287941761969</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>17.30666235532772</v>
+        <v>17.30751460625575</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>17.17667799790709</v>
+        <v>17.17978185317713</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>17.12951949835707</v>
+        <v>17.14278000953848</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>17.48031684740631</v>
+        <v>17.47011617354777</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>17.28214046294126</v>
+        <v>17.29326013428676</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>17.19855297367057</v>
+        <v>17.19429317939334</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>18.50240700744074</v>
+        <v>18.48166175987566</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>19.47171943337853</v>
+        <v>19.43585196399274</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>19.11801806828681</v>
+        <v>19.15470674963189</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>19.15857851558417</v>
+        <v>19.1348814729375</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>17.50146160079269</v>
+        <v>17.51862940088492</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>18.01911751543388</v>
+        <v>17.98869909462221</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>17.83952607012087</v>
+        <v>17.81107790536826</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>17.70426741195318</v>
+        <v>17.68241281015196</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>16.78852197454942</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>17.31606784509928</v>
+        <v>17.31606784509927</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>18.46013283291574</v>
@@ -953,7 +953,7 @@
         <v>17.94364659139702</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>19.13748408352122</v>
+        <v>19.13748408352123</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>17.67501996618612</v>
@@ -965,7 +965,7 @@
         <v>17.19675363439017</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>17.95561368966388</v>
+        <v>17.95561368966387</v>
       </c>
     </row>
     <row r="11">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>17.14974571100882</v>
+        <v>17.16666593287204</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>17.14373696377208</v>
+        <v>17.12799870182021</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>16.59781588911424</v>
+        <v>16.59652907520703</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>17.04232216432155</v>
+        <v>17.04466532187361</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>17.9880008226473</v>
+        <v>17.96215861633754</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>18.56983350103402</v>
+        <v>18.55985966066564</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>17.52743309678734</v>
+        <v>17.55210927371792</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>18.45594079218531</v>
+        <v>18.4232311320371</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>17.46136242423149</v>
+        <v>17.45914225089938</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>17.67772585110897</v>
+        <v>17.67724069590727</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>16.99079287787626</v>
+        <v>16.9860342653253</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>17.65395655608905</v>
+        <v>17.63286155870286</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>17.60158498205834</v>
+        <v>17.62341383441003</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>17.88432143438027</v>
+        <v>17.93852859826998</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>17.02234841001339</v>
+        <v>17.01153991985266</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>17.64006166053192</v>
+        <v>17.67445750029169</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>19.07808210809108</v>
+        <v>19.07300955541853</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>20.3011786469645</v>
+        <v>20.3622602446036</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>18.68443833766613</v>
+        <v>18.72186598359642</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>19.95336457772249</v>
+        <v>19.92942099573683</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>17.94504455125438</v>
+        <v>17.93138027872698</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>18.43024574901047</v>
+        <v>18.42997126282242</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>17.48446507474352</v>
+        <v>17.45881578683014</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>18.32718362848785</v>
+        <v>18.29502396292142</v>
       </c>
     </row>
     <row r="13">
@@ -1101,7 +1101,7 @@
         <v>17.92490741739945</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>18.15499468501188</v>
+        <v>18.15499468501189</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>17.00964382443293</v>
+        <v>17.00919312291086</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>17.18232162601394</v>
+        <v>17.18298307339791</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>16.9827972892737</v>
+        <v>16.99341415183015</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>17.39072099654154</v>
+        <v>17.40283881817521</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>17.8943227066017</v>
+        <v>17.89576793258561</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>18.21270321618218</v>
+        <v>18.17910954684141</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>18.49099433393376</v>
+        <v>18.53252320507738</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>18.40011644666609</v>
+        <v>18.41138125795599</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>17.39434316178383</v>
+        <v>17.40584771961346</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>17.67388949409478</v>
+        <v>17.66341202490611</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>17.66575504091222</v>
+        <v>17.69490964189852</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>17.86057621257292</v>
+        <v>17.90219739629975</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>17.37836210901297</v>
+        <v>17.39504231610418</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>17.93549812959085</v>
+        <v>17.92986047347484</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>17.41538585197667</v>
+        <v>17.39779249161969</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>18.08360383689546</v>
+        <v>18.12033570344484</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>18.66121311076746</v>
+        <v>18.6619867708033</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>19.16916246774681</v>
+        <v>19.10988959252966</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>19.80191843035769</v>
+        <v>19.69430913793697</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>19.379956698091</v>
+        <v>19.38422265567618</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>17.76524326603823</v>
+        <v>17.77082753203296</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>18.19171898296693</v>
+        <v>18.19875493379149</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>18.30922839116779</v>
+        <v>18.2748576404122</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>18.44148850783624</v>
+        <v>18.46622892459085</v>
       </c>
     </row>
     <row r="16">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>16.99738413028112</v>
+        <v>17.00706830722363</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>17.20970494429952</v>
+        <v>17.20576826460958</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>16.90367256688751</v>
+        <v>16.8910456453928</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>17.01298376151652</v>
+        <v>17.01348691422168</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>17.9558959599669</v>
+        <v>17.96163594754342</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>18.47890822631722</v>
+        <v>18.48204350943911</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>18.3111149466908</v>
+        <v>18.28585178832655</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>18.30622293241267</v>
+        <v>18.32552046061739</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>17.34422959991226</v>
+        <v>17.33793153318165</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>17.68543892522453</v>
+        <v>17.6780966091437</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>17.45782610883382</v>
+        <v>17.45420755918813</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>17.51869044155505</v>
+        <v>17.51756640449765</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>17.18860889758249</v>
+        <v>17.18604502311667</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>17.51422928935539</v>
+        <v>17.50446619461034</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>17.13931294759731</v>
+        <v>17.11728333904295</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>17.28258246836198</v>
+        <v>17.30055761715573</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>18.358496126549</v>
+        <v>18.37166508184007</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>19.08864929541616</v>
+        <v>19.082613755688</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>18.97489860655466</v>
+        <v>18.93350576770444</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>18.91349900112731</v>
+        <v>18.93844027885774</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>17.52766453184896</v>
+        <v>17.53121100284934</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>17.98025853966445</v>
+        <v>17.95945523995308</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>17.7318986408882</v>
+        <v>17.73491586983536</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>17.79954220432675</v>
+        <v>17.79705398957806</v>
       </c>
     </row>
     <row r="19">
